--- a/outputs/ML_Results/carown_LR_new/Leipzig.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Leipzig.xlsx
@@ -7,14 +7,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ18" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ21" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ12" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ3" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ17" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ10" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ8" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ19" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +465,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-8.754915801037813</v>
+        <v>-10.37425484184774</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9169049500525617</v>
+        <v>0.938810930573345</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.585395086669612</v>
+        <v>9.600228717843354</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9184961116726663</v>
+        <v>0.9433649639171425</v>
       </c>
     </row>
     <row r="4">
@@ -491,10 +491,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.406640931210582</v>
+        <v>9.298019639164263</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9201880326114512</v>
+        <v>0.9451451194140708</v>
       </c>
     </row>
     <row r="5">
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.305414616165813</v>
+        <v>8.360972218911977</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9306142097502831</v>
+        <v>0.9506658123235717</v>
       </c>
     </row>
     <row r="6">
@@ -517,10 +517,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.605513989513616</v>
+        <v>8.879750666548103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9277715216311498</v>
+        <v>0.9476090119245469</v>
       </c>
     </row>
     <row r="7">
@@ -530,10 +530,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.539003267924019</v>
+        <v>8.709052288929893</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9284016451097321</v>
+        <v>0.9486147779150244</v>
       </c>
     </row>
     <row r="8">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05767183018216351</v>
+        <v>0.1778566895081515</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7540052540558031</v>
+        <v>0.3601618305553744</v>
       </c>
     </row>
     <row r="9">
@@ -556,10 +556,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005317314328281432</v>
+        <v>0.0004627628641612906</v>
       </c>
       <c r="C9" t="n">
-        <v>1.143561319650632e-10</v>
+        <v>1.596415016986324e-08</v>
       </c>
     </row>
     <row r="10">
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00126893178137334</v>
+        <v>0.003816556043373746</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8498950757315296</v>
+        <v>0.5696599923831795</v>
       </c>
     </row>
     <row r="11">
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2145821071395248</v>
+        <v>-0.2263252090346614</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2033247470481112</v>
+        <v>0.1808001547140575</v>
       </c>
     </row>
     <row r="12">
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8852737639013892</v>
+        <v>0.9288904562045258</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001065669194049853</v>
+        <v>0.0005646868004054119</v>
       </c>
     </row>
     <row r="13">
@@ -608,10 +608,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5336968074599657</v>
+        <v>0.4096705520802395</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1357772243477198</v>
+        <v>0.2611277592370513</v>
       </c>
     </row>
     <row r="14">
@@ -621,10 +621,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.050317544563687e-05</v>
+        <v>-5.057633718848586e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3584909562886924</v>
+        <v>0.948082411948596</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.130137486129203e-08</v>
+        <v>8.847956731907098e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.335153737025811</v>
+        <v>0.9183501379646318</v>
       </c>
     </row>
     <row r="16">
@@ -647,10 +647,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06906526245902493</v>
+        <v>-0.001334390068568356</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3743105491432266</v>
+        <v>0.9864753722670591</v>
       </c>
     </row>
     <row r="17">
@@ -660,10 +660,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03697993791541801</v>
+        <v>0.03219246923549562</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6824250106255396</v>
+        <v>0.7164993047095999</v>
       </c>
     </row>
     <row r="18">
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.302908625458801</v>
+        <v>-1.429502839823645</v>
       </c>
       <c r="C18" t="n">
-        <v>0.104096853142647</v>
+        <v>0.07626580914319366</v>
       </c>
     </row>
     <row r="19">
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01828356585152017</v>
+        <v>0.0006866086106331025</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3706375150971158</v>
+        <v>0.9732502857180907</v>
       </c>
     </row>
     <row r="20">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.00216470265784729</v>
+        <v>0.005997857121079008</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8055714170813456</v>
+        <v>0.502750548497588</v>
       </c>
     </row>
     <row r="21">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.6867219521780858</v>
+        <v>-0.2663894600155235</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6908884658143286</v>
+        <v>0.8784984076088829</v>
       </c>
     </row>
     <row r="22">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.04158934151028041</v>
+        <v>-0.8808196826284549</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9726797501221033</v>
+        <v>0.4513220286136149</v>
       </c>
     </row>
     <row r="23">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0001597188337938178</v>
+        <v>-0.0002480193792124042</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7295553715896044</v>
+        <v>0.5959731083080314</v>
       </c>
     </row>
   </sheetData>
@@ -787,10 +787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-10.10181948036324</v>
+        <v>-9.97706152304278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9316283046945976</v>
+        <v>0.9173683885227617</v>
       </c>
     </row>
     <row r="3">
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.299986189330108</v>
+        <v>8.753530389107693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9370387033480257</v>
+        <v>0.9274638567219481</v>
       </c>
     </row>
     <row r="4">
@@ -813,10 +813,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.841715799135883</v>
+        <v>8.23761985010333</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9401354789127168</v>
+        <v>0.9317285838250138</v>
       </c>
     </row>
     <row r="5">
@@ -826,10 +826,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.099947701625196</v>
+        <v>7.45929879602902</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9451493447028074</v>
+        <v>0.9381653012018818</v>
       </c>
     </row>
     <row r="6">
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.569012230167852</v>
+        <v>7.898670087784878</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9419784055464933</v>
+        <v>0.934531031675003</v>
       </c>
     </row>
     <row r="7">
@@ -852,10 +852,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.164779754404224</v>
+        <v>7.729964374952699</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9447110798573563</v>
+        <v>0.9359264030794664</v>
       </c>
     </row>
     <row r="8">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2267848777385721</v>
+        <v>0.2418705865688555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2386332404344227</v>
+        <v>0.2045355001364505</v>
       </c>
     </row>
     <row r="9">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004833930741742616</v>
+        <v>0.0005132549192494434</v>
       </c>
       <c r="C9" t="n">
-        <v>5.528315315889096e-09</v>
+        <v>5.271478929882367e-10</v>
       </c>
     </row>
     <row r="10">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.002756870777491233</v>
+        <v>-0.00420640735863662</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6843396643674309</v>
+        <v>0.5281067201044585</v>
       </c>
     </row>
     <row r="11">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2474404428358044</v>
+        <v>-0.279695976122171</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1435101633118792</v>
+        <v>0.09768111843710911</v>
       </c>
     </row>
     <row r="12">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.047893822759969</v>
+        <v>1.012278478707827</v>
       </c>
       <c r="C12" t="n">
-        <v>9.539991657909673e-05</v>
+        <v>0.0001778180604380423</v>
       </c>
     </row>
     <row r="13">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7289358432220593</v>
+        <v>0.7829278843500579</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04464330034377547</v>
+        <v>0.02936277062411023</v>
       </c>
     </row>
     <row r="14">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.495724718210873e-05</v>
+        <v>8.366941726175109e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8483835660071868</v>
+        <v>0.2828710034416311</v>
       </c>
     </row>
     <row r="15">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.203133965423151e-08</v>
+        <v>-8.156053595512742e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6235554108624344</v>
+        <v>0.3294228211671207</v>
       </c>
     </row>
     <row r="16">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04426843560488418</v>
+        <v>0.05603845793020042</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5732194189878579</v>
+        <v>0.4709701944689595</v>
       </c>
     </row>
     <row r="17">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.000727607361535752</v>
+        <v>0.03369666807343504</v>
       </c>
       <c r="C17" t="n">
-        <v>0.993467956447407</v>
+        <v>0.7039521944891304</v>
       </c>
     </row>
     <row r="18">
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.275688590154195</v>
+        <v>-1.326188084413908</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1116918925997801</v>
+        <v>0.09674172513165394</v>
       </c>
     </row>
     <row r="19">
@@ -1008,10 +1008,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.003281724564364353</v>
+        <v>-0.008394060480968753</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8743099970217324</v>
+        <v>0.6770276215377096</v>
       </c>
     </row>
     <row r="20">
@@ -1021,10 +1021,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004501295244468028</v>
+        <v>0.008973357504126683</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6116665728629845</v>
+        <v>0.3005943603152652</v>
       </c>
     </row>
     <row r="21">
@@ -1034,10 +1034,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5307011391265878</v>
+        <v>-1.61077282920817</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7607719259012345</v>
+        <v>0.3575168303909096</v>
       </c>
     </row>
     <row r="22">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.08575370279808753</v>
+        <v>0.7371488537804985</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9438576060621218</v>
+        <v>0.5404739835736221</v>
       </c>
     </row>
     <row r="23">
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0004816149590794433</v>
+        <v>9.298866084217822e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3084820520379523</v>
+        <v>0.8383819918767909</v>
       </c>
     </row>
   </sheetData>
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-12.55032702002736</v>
+        <v>-10.45835015380973</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9504042655812696</v>
+        <v>0.9418769282440131</v>
       </c>
     </row>
     <row r="3">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.40289045058072</v>
+        <v>9.802164692264407</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9588810282570139</v>
+        <v>0.9455151330900685</v>
       </c>
     </row>
     <row r="4">
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.940407409758489</v>
+        <v>9.548960191363008</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9607075999913531</v>
+        <v>0.94692058876087</v>
       </c>
     </row>
     <row r="5">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.122915539738345</v>
+        <v>8.579357927855147</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9639366492136056</v>
+        <v>0.9523034116117599</v>
       </c>
     </row>
     <row r="6">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.696367301800674</v>
+        <v>9.022589333202234</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9616714553613588</v>
+        <v>0.9498424474246585</v>
       </c>
     </row>
     <row r="7">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.687057349313669</v>
+        <v>8.985522318938928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9617082463405655</v>
+        <v>0.9500482797485882</v>
       </c>
     </row>
     <row r="8">
@@ -1187,10 +1187,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1552436476883931</v>
+        <v>0.122456920306578</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4003008649793324</v>
+        <v>0.4956526677993884</v>
       </c>
     </row>
     <row r="9">
@@ -1200,10 +1200,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005477718163844097</v>
+        <v>0.000532461024523524</v>
       </c>
       <c r="C9" t="n">
-        <v>4.538768023681115e-11</v>
+        <v>7.789892902284441e-11</v>
       </c>
     </row>
     <row r="10">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4.212719411058656e-05</v>
+        <v>0.002238516865273494</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9949331635746735</v>
+        <v>0.7373656399909635</v>
       </c>
     </row>
     <row r="11">
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2459934176689238</v>
+        <v>-0.2351258575093456</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1402892729091031</v>
+        <v>0.1571409916614108</v>
       </c>
     </row>
     <row r="12">
@@ -1239,10 +1239,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9517557282644871</v>
+        <v>0.7609035836511721</v>
       </c>
       <c r="C12" t="n">
-        <v>0.000295079319201144</v>
+        <v>0.003751697831427497</v>
       </c>
     </row>
     <row r="13">
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6355771569795936</v>
+        <v>0.3739349178975936</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07381071666509005</v>
+        <v>0.2910846479802132</v>
       </c>
     </row>
     <row r="14">
@@ -1265,10 +1265,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.420510073086108e-05</v>
+        <v>1.60507402387619e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8524933078980967</v>
+        <v>0.8303806595267307</v>
       </c>
     </row>
     <row r="15">
@@ -1278,10 +1278,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.90788927784361e-09</v>
+        <v>-5.554647214742526e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9633424780805664</v>
+        <v>0.9467362371696534</v>
       </c>
     </row>
     <row r="16">
@@ -1291,10 +1291,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.00471887025548194</v>
+        <v>0.06117865567486909</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9511791490941366</v>
+        <v>0.4245760135545638</v>
       </c>
     </row>
     <row r="17">
@@ -1304,10 +1304,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05989536544463332</v>
+        <v>0.02201011670114062</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4944186662253202</v>
+        <v>0.8059926291964418</v>
       </c>
     </row>
     <row r="18">
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.624680239840851</v>
+        <v>-1.499938544665291</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0394597791597471</v>
+        <v>0.05276587014570504</v>
       </c>
     </row>
     <row r="19">
@@ -1330,10 +1330,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01053431719925909</v>
+        <v>-0.004260921622422898</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6038470158904581</v>
+        <v>0.8334795371933835</v>
       </c>
     </row>
     <row r="20">
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01216832514301539</v>
+        <v>0.002810221249631772</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1737525059182905</v>
+        <v>0.7458497442082574</v>
       </c>
     </row>
     <row r="21">
@@ -1356,10 +1356,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.01831847222757083</v>
+        <v>0.4454396977483715</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9914352622147193</v>
+        <v>0.7919293974569632</v>
       </c>
     </row>
     <row r="22">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.06614202722979978</v>
+        <v>-0.02544539322065064</v>
       </c>
       <c r="C22" t="n">
-        <v>0.955265524854958</v>
+        <v>0.9826200028706717</v>
       </c>
     </row>
     <row r="23">
@@ -1382,10 +1382,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0002394105402932971</v>
+        <v>-0.000222710730649497</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6051571741068857</v>
+        <v>0.6292531918777101</v>
       </c>
     </row>
   </sheetData>
@@ -1431,10 +1431,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.22465751556917</v>
+        <v>-11.92162396140384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9969618247581412</v>
+        <v>0.9512774098568108</v>
       </c>
     </row>
     <row r="3">
@@ -1444,10 +1444,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.56085692862479</v>
+        <v>10.49912222585014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9968988693109206</v>
+        <v>0.9570838343581598</v>
       </c>
     </row>
     <row r="4">
@@ -1457,10 +1457,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.57269219369492</v>
+        <v>10.54235463553238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9968966531000113</v>
+        <v>0.9569073557095474</v>
       </c>
     </row>
     <row r="5">
@@ -1470,10 +1470,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.05259341675241</v>
+        <v>8.895443842926007</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971813004617817</v>
+        <v>0.9636340919997403</v>
       </c>
     </row>
     <row r="6">
@@ -1483,10 +1483,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.7155422105066</v>
+        <v>9.496136917660252</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970571593840587</v>
+        <v>0.9611802421927745</v>
       </c>
     </row>
     <row r="7">
@@ -1496,10 +1496,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.67488284387101</v>
+        <v>9.67767627265251</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9970647730921015</v>
+        <v>0.9604387408151027</v>
       </c>
     </row>
     <row r="8">
@@ -1509,10 +1509,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03592812342927618</v>
+        <v>-0.00953558780757007</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8405186231633915</v>
+        <v>0.958373088293161</v>
       </c>
     </row>
     <row r="9">
@@ -1522,10 +1522,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004793368296247263</v>
+        <v>0.0005413264089714956</v>
       </c>
       <c r="C9" t="n">
-        <v>6.240184492198899e-09</v>
+        <v>2.301810319353211e-10</v>
       </c>
     </row>
     <row r="10">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0004938881253097587</v>
+        <v>-0.002420210204131318</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9406358922304641</v>
+        <v>0.7199200721915386</v>
       </c>
     </row>
     <row r="11">
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.1132973172751634</v>
+        <v>-0.2064539261953917</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4999848629001145</v>
+        <v>0.2227119704812787</v>
       </c>
     </row>
     <row r="12">
@@ -1561,10 +1561,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7634708023475975</v>
+        <v>0.7578685355943753</v>
       </c>
       <c r="C12" t="n">
-        <v>0.004557408258220708</v>
+        <v>0.005209455065543513</v>
       </c>
     </row>
     <row r="13">
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6028052429920491</v>
+        <v>0.5387007260712789</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09374320988476831</v>
+        <v>0.1359137802697243</v>
       </c>
     </row>
     <row r="14">
@@ -1587,10 +1587,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.993751420969608e-05</v>
+        <v>-7.012572200357759e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3659151960205479</v>
+        <v>0.9276885642789491</v>
       </c>
     </row>
     <row r="15">
@@ -1600,10 +1600,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.099018546910231e-08</v>
+        <v>-4.302306324954131e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.624376625651788</v>
+        <v>0.9595045669356351</v>
       </c>
     </row>
     <row r="16">
@@ -1613,10 +1613,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05800454784985134</v>
+        <v>0.03630047529588565</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4514053437812783</v>
+        <v>0.6403279187244775</v>
       </c>
     </row>
     <row r="17">
@@ -1626,10 +1626,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002653252720148883</v>
+        <v>0.0613316926862419</v>
       </c>
       <c r="C17" t="n">
-        <v>0.976516175400448</v>
+        <v>0.4960967285575311</v>
       </c>
     </row>
     <row r="18">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.450294317846608</v>
+        <v>-0.8156138478150567</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06652417517858235</v>
+        <v>0.3218737864840517</v>
       </c>
     </row>
     <row r="19">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01246378730029368</v>
+        <v>0.007406505384120073</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5426570246099596</v>
+        <v>0.718487820798295</v>
       </c>
     </row>
     <row r="20">
@@ -1665,10 +1665,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002023330383851051</v>
+        <v>0.01032107698034227</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8169356621860082</v>
+        <v>0.2466497813345038</v>
       </c>
     </row>
     <row r="21">
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.078134065307897</v>
+        <v>0.3016177978636716</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5355375429604264</v>
+        <v>0.8623163678000643</v>
       </c>
     </row>
     <row r="22">
@@ -1691,10 +1691,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3117522860724932</v>
+        <v>0.3449953243093986</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7919838500478569</v>
+        <v>0.7754320737229357</v>
       </c>
     </row>
     <row r="23">
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-8.483351875266472e-05</v>
+        <v>-0.0003199182216320626</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8549012945691701</v>
+        <v>0.4923284003791446</v>
       </c>
     </row>
   </sheetData>
@@ -1753,10 +1753,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.66099406441577</v>
+        <v>-16.90665898050057</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9967003510768672</v>
+        <v>0.9968362726381133</v>
       </c>
     </row>
     <row r="3">
@@ -1766,10 +1766,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.47911558786438</v>
+        <v>16.53286278165566</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969211631543127</v>
+        <v>0.9969062202417679</v>
       </c>
     </row>
     <row r="4">
@@ -1779,10 +1779,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.05897385738454</v>
+        <v>16.40682962258885</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969996589817864</v>
+        <v>0.9969298046059628</v>
       </c>
     </row>
     <row r="5">
@@ -1792,10 +1792,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.34157974599219</v>
+        <v>15.24534953202656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971336910462351</v>
+        <v>0.9971471503723401</v>
       </c>
     </row>
     <row r="6">
@@ -1805,10 +1805,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.75531437556971</v>
+        <v>15.79669975763256</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970563922289217</v>
+        <v>0.997043977124817</v>
       </c>
     </row>
     <row r="7">
@@ -1818,10 +1818,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.52853869505945</v>
+        <v>15.53899015065523</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9970987611535876</v>
+        <v>0.9970922018901086</v>
       </c>
     </row>
     <row r="8">
@@ -1831,10 +1831,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.263722581131825</v>
+        <v>0.1076340054401884</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1651316240702658</v>
+        <v>0.5519227852421245</v>
       </c>
     </row>
     <row r="9">
@@ -1844,10 +1844,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005013451840564836</v>
+        <v>0.000472539235281761</v>
       </c>
       <c r="C9" t="n">
-        <v>1.187928591760339e-09</v>
+        <v>4.14153772830904e-09</v>
       </c>
     </row>
     <row r="10">
@@ -1857,10 +1857,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.003359233142535473</v>
+        <v>0.0002488506991039382</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6107355597249774</v>
+        <v>0.9696524163465632</v>
       </c>
     </row>
     <row r="11">
@@ -1870,10 +1870,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2997414267478754</v>
+        <v>-0.2207475867206822</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0718678105734796</v>
+        <v>0.1852717255623674</v>
       </c>
     </row>
     <row r="12">
@@ -1883,10 +1883,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9884648402086982</v>
+        <v>0.8718353488055837</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003370719644170634</v>
+        <v>0.0008655338199994552</v>
       </c>
     </row>
     <row r="13">
@@ -1896,10 +1896,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7421421689295913</v>
+        <v>0.6191996303709201</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04016810224198934</v>
+        <v>0.07518000081117461</v>
       </c>
     </row>
     <row r="14">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.205841265116887e-05</v>
+        <v>-1.712553424651639e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8769715640487491</v>
+        <v>0.8273110123606927</v>
       </c>
     </row>
     <row r="15">
@@ -1922,10 +1922,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-9.648279123731525e-09</v>
+        <v>-5.154607006189995e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9078937448631038</v>
+        <v>0.9503247406886213</v>
       </c>
     </row>
     <row r="16">
@@ -1935,10 +1935,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.04311288683920213</v>
+        <v>0.03197959506235279</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5785662261557819</v>
+        <v>0.6777768521031065</v>
       </c>
     </row>
     <row r="17">
@@ -1948,10 +1948,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004377210365940779</v>
+        <v>0.02355704287228477</v>
       </c>
       <c r="C17" t="n">
-        <v>0.960828100900904</v>
+        <v>0.7869385923152713</v>
       </c>
     </row>
     <row r="18">
@@ -1961,10 +1961,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.684273176971936</v>
+        <v>-1.461915884714295</v>
       </c>
       <c r="C18" t="n">
-        <v>0.03164092562478984</v>
+        <v>0.06568974691109093</v>
       </c>
     </row>
     <row r="19">
@@ -1974,10 +1974,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000471573286567782</v>
+        <v>-0.009954217319391922</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9814564387039769</v>
+        <v>0.6189299331443009</v>
       </c>
     </row>
     <row r="20">
@@ -1987,10 +1987,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.007449590823304254</v>
+        <v>0.003733763427474844</v>
       </c>
       <c r="C20" t="n">
-        <v>0.400014161122965</v>
+        <v>0.6708793279126346</v>
       </c>
     </row>
     <row r="21">
@@ -2000,10 +2000,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02491148968543887</v>
+        <v>0.8977375712983161</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9885897113873765</v>
+        <v>0.6095800189488163</v>
       </c>
     </row>
     <row r="22">
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3393193467560559</v>
+        <v>-0.03566744630838403</v>
       </c>
       <c r="C22" t="n">
-        <v>0.775543506085702</v>
+        <v>0.9760791792967076</v>
       </c>
     </row>
     <row r="23">
@@ -2026,10 +2026,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.000247533901019091</v>
+        <v>-0.0001754501010985222</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5867632258009967</v>
+        <v>0.6947472087446418</v>
       </c>
     </row>
   </sheetData>
@@ -2075,10 +2075,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-18.07797173345788</v>
+        <v>-17.08334520174077</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9966265144542471</v>
+        <v>0.9968042165011609</v>
       </c>
     </row>
     <row r="3">
@@ -2088,10 +2088,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.73153534529061</v>
+        <v>16.48305029144163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.996877768087987</v>
+        <v>0.9969165129968601</v>
       </c>
     </row>
     <row r="4">
@@ -2101,10 +2101,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.47309375860516</v>
+        <v>16.21569631616939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969259950254454</v>
+        <v>0.9969665267169877</v>
       </c>
     </row>
     <row r="5">
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.25540918039367</v>
+        <v>15.20045609393516</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971532232496484</v>
+        <v>0.9971564470544894</v>
       </c>
     </row>
     <row r="6">
@@ -2127,10 +2127,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.79133775853951</v>
+        <v>15.74625322099562</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970532152992582</v>
+        <v>0.9970543451112144</v>
       </c>
     </row>
     <row r="7">
@@ -2140,10 +2140,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.69229158710342</v>
+        <v>15.70136721853631</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9970716979934491</v>
+        <v>0.9970627419108093</v>
       </c>
     </row>
     <row r="8">
@@ -2153,10 +2153,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.115584252741284</v>
+        <v>0.1342959838106768</v>
       </c>
       <c r="C8" t="n">
-        <v>0.541022280201032</v>
+        <v>0.4669486987622213</v>
       </c>
     </row>
     <row r="9">
@@ -2166,10 +2166,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005552129108373527</v>
+        <v>0.0005317609004672322</v>
       </c>
       <c r="C9" t="n">
-        <v>9.387381637531221e-11</v>
+        <v>1.148185902944049e-10</v>
       </c>
     </row>
     <row r="10">
@@ -2179,10 +2179,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.73765382258466e-05</v>
+        <v>-0.0003712831199891563</v>
       </c>
       <c r="C10" t="n">
-        <v>0.992143597576938</v>
+        <v>0.9552615770575621</v>
       </c>
     </row>
     <row r="11">
@@ -2192,10 +2192,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2502703499947777</v>
+        <v>-0.2712164061094858</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1444883724461107</v>
+        <v>0.1030089278982676</v>
       </c>
     </row>
     <row r="12">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7793856509126921</v>
+        <v>0.8767999339358409</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003885702474485091</v>
+        <v>0.00101003723149902</v>
       </c>
     </row>
     <row r="13">
@@ -2218,10 +2218,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4471104897218869</v>
+        <v>0.6203125640815467</v>
       </c>
       <c r="C13" t="n">
-        <v>0.218630292689819</v>
+        <v>0.08252660138785806</v>
       </c>
     </row>
     <row r="14">
@@ -2231,10 +2231,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.704832850328493e-08</v>
+        <v>3.030030822892193e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9997318272353682</v>
+        <v>0.9687003417679828</v>
       </c>
     </row>
     <row r="15">
@@ -2244,10 +2244,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.933640406365978e-08</v>
+        <v>-3.357182372048868e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8206418444140834</v>
+        <v>0.6851831619153772</v>
       </c>
     </row>
     <row r="16">
@@ -2257,10 +2257,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03575827367737044</v>
+        <v>0.03146569259935119</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6546242781146868</v>
+        <v>0.6831744337227481</v>
       </c>
     </row>
     <row r="17">
@@ -2270,10 +2270,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04990494453824058</v>
+        <v>0.01838317064526468</v>
       </c>
       <c r="C17" t="n">
-        <v>0.580455354494388</v>
+        <v>0.8348760527987111</v>
       </c>
     </row>
     <row r="18">
@@ -2283,10 +2283,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.379118397667614</v>
+        <v>-1.591746737462635</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09291674271151866</v>
+        <v>0.04563116186864365</v>
       </c>
     </row>
     <row r="19">
@@ -2296,10 +2296,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0007984552114503167</v>
+        <v>-0.006764377619646487</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9690947926042371</v>
+        <v>0.7391276923813836</v>
       </c>
     </row>
     <row r="20">
@@ -2309,10 +2309,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.009023375451331264</v>
+        <v>0.004590266980242498</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3232109480534617</v>
+        <v>0.6003831284095585</v>
       </c>
     </row>
     <row r="21">
@@ -2322,10 +2322,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.435586856928887</v>
+        <v>0.141448421614882</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8078948729235066</v>
+        <v>0.9351338075137064</v>
       </c>
     </row>
     <row r="22">
@@ -2335,10 +2335,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.1367994824163922</v>
+        <v>0.6630311255415315</v>
       </c>
       <c r="C22" t="n">
-        <v>0.90926934176109</v>
+        <v>0.5767875144163566</v>
       </c>
     </row>
     <row r="23">
@@ -2348,10 +2348,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.000177126331599695</v>
+        <v>-0.0001221433366115558</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7019238511284245</v>
+        <v>0.7884310417045693</v>
       </c>
     </row>
   </sheetData>
@@ -2397,10 +2397,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.66626669061726</v>
+        <v>-16.58754203830856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9966954803216658</v>
+        <v>0.9968935875194019</v>
       </c>
     </row>
     <row r="3">
@@ -2410,10 +2410,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.38054938125306</v>
+        <v>16.38054392672779</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969359755743317</v>
+        <v>0.9969323524675807</v>
       </c>
     </row>
     <row r="4">
@@ -2423,10 +2423,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.16787585665975</v>
+        <v>16.06958898346105</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969757565290962</v>
+        <v>0.9969905859277319</v>
       </c>
     </row>
     <row r="5">
@@ -2436,10 +2436,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.04927786109543</v>
+        <v>15.23104159710088</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971849923041798</v>
+        <v>0.9971476232466804</v>
       </c>
     </row>
     <row r="6">
@@ -2449,10 +2449,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.53901941729445</v>
+        <v>15.70353123756519</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970933852339029</v>
+        <v>0.9970591386573813</v>
       </c>
     </row>
     <row r="7">
@@ -2462,10 +2462,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.38489468671157</v>
+        <v>15.28770539745326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9971222145504036</v>
+        <v>0.997137011642897</v>
       </c>
     </row>
     <row r="8">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1112068182947288</v>
+        <v>0.2036502549329919</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5573180180839082</v>
+        <v>0.2914796249982243</v>
       </c>
     </row>
     <row r="9">
@@ -2488,10 +2488,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005487888203008857</v>
+        <v>0.0005373772298367794</v>
       </c>
       <c r="C9" t="n">
-        <v>8.84491516379804e-11</v>
+        <v>2.731629712172773e-10</v>
       </c>
     </row>
     <row r="10">
@@ -2501,10 +2501,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.00213227278728413</v>
+        <v>-0.005270610453765605</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7512114085319431</v>
+        <v>0.4350180428639819</v>
       </c>
     </row>
     <row r="11">
@@ -2514,10 +2514,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.3150073397787375</v>
+        <v>-0.2332813016400017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06365362466284137</v>
+        <v>0.1676254046212103</v>
       </c>
     </row>
     <row r="12">
@@ -2527,10 +2527,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9752973367785005</v>
+        <v>1.047976858201339</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003240869540503812</v>
+        <v>0.0001168329542731331</v>
       </c>
     </row>
     <row r="13">
@@ -2540,10 +2540,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5429181769284582</v>
+        <v>0.8459469400248563</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1310581461033477</v>
+        <v>0.01992381113017895</v>
       </c>
     </row>
     <row r="14">
@@ -2553,10 +2553,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-9.95082569625082e-06</v>
+        <v>4.207742323369087e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9000239782947271</v>
+        <v>0.5840208805778604</v>
       </c>
     </row>
     <row r="15">
@@ -2566,10 +2566,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.624673155139902e-10</v>
+        <v>9.82139768976252e-09</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9918293135113017</v>
+        <v>0.90824659791345</v>
       </c>
     </row>
     <row r="16">
@@ -2579,10 +2579,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0530444062928839</v>
+        <v>0.05751669549450392</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4997382706876171</v>
+        <v>0.4636307195261142</v>
       </c>
     </row>
     <row r="17">
@@ -2592,10 +2592,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01837246926470001</v>
+        <v>0.003949900818683735</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8387982528041551</v>
+        <v>0.9649634807585047</v>
       </c>
     </row>
     <row r="18">
@@ -2605,10 +2605,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.294774454904932</v>
+        <v>-1.452236774461807</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1145432127666202</v>
+        <v>0.06692921646590498</v>
       </c>
     </row>
     <row r="19">
@@ -2618,10 +2618,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.006022596769377361</v>
+        <v>-0.009370011364644146</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7717695341789718</v>
+        <v>0.6502683982856141</v>
       </c>
     </row>
     <row r="20">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.006891170446435426</v>
+        <v>0.001588823097453103</v>
       </c>
       <c r="C20" t="n">
-        <v>0.437904154969342</v>
+        <v>0.8586018473840845</v>
       </c>
     </row>
     <row r="21">
@@ -2644,10 +2644,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2657365879003183</v>
+        <v>-0.1651865541400728</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8812026008150873</v>
+        <v>0.9232787469217226</v>
       </c>
     </row>
     <row r="22">
@@ -2657,10 +2657,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4829738072309606</v>
+        <v>-0.3596830417868347</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6924234004915109</v>
+        <v>0.7661621888363735</v>
       </c>
     </row>
     <row r="23">
@@ -2670,10 +2670,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0003721470544364992</v>
+        <v>-0.0002502161960366703</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4286946300134593</v>
+        <v>0.5916130859958572</v>
       </c>
     </row>
   </sheetData>
@@ -2719,10 +2719,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.71172754299477</v>
+        <v>-17.6471430690852</v>
       </c>
       <c r="C2" t="n">
-        <v>0.996872916960416</v>
+        <v>0.9967026151394964</v>
       </c>
     </row>
     <row r="3">
@@ -2732,10 +2732,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.50236990782298</v>
+        <v>16.47738994307831</v>
       </c>
       <c r="C3" t="n">
-        <v>0.996912091396202</v>
+        <v>0.9969211832763951</v>
       </c>
     </row>
     <row r="4">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.20062834996757</v>
+        <v>16.07316994715902</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969685527400465</v>
+        <v>0.9969967118338391</v>
       </c>
     </row>
     <row r="5">
@@ -2758,10 +2758,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.33215591099309</v>
+        <v>15.28370375703539</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971310598095693</v>
+        <v>0.9971442237431515</v>
       </c>
     </row>
     <row r="6">
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.78611154507359</v>
+        <v>15.73726891016789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970461163931081</v>
+        <v>0.9970594749908054</v>
       </c>
     </row>
     <row r="7">
@@ -2784,10 +2784,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.61523508656371</v>
+        <v>15.42905798851657</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9970780905079221</v>
+        <v>0.9971170642714526</v>
       </c>
     </row>
     <row r="8">
@@ -2797,10 +2797,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1855897004788089</v>
+        <v>0.2213699151413253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3194282409396125</v>
+        <v>0.2372362336348703</v>
       </c>
     </row>
     <row r="9">
@@ -2810,10 +2810,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005500532678102658</v>
+        <v>0.0005597168098233074</v>
       </c>
       <c r="C9" t="n">
-        <v>2.963010808725211e-11</v>
+        <v>2.987713753829211e-11</v>
       </c>
     </row>
     <row r="10">
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.000748232878421845</v>
+        <v>0.001237183291287754</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9081534546432443</v>
+        <v>0.8536654655212961</v>
       </c>
     </row>
     <row r="11">
@@ -2836,10 +2836,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2921829569914129</v>
+        <v>-0.2758218060602471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07765905154067398</v>
+        <v>0.105012100168931</v>
       </c>
     </row>
     <row r="12">
@@ -2849,10 +2849,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8117514052313172</v>
+        <v>0.8939181894223804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00159357490544544</v>
+        <v>0.00112809983255727</v>
       </c>
     </row>
     <row r="13">
@@ -2862,10 +2862,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.604609188054178</v>
+        <v>0.6112818046084856</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07974955212134831</v>
+        <v>0.09248860030395453</v>
       </c>
     </row>
     <row r="14">
@@ -2875,10 +2875,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.23373937914454e-05</v>
+        <v>8.082259657328731e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8695122371014152</v>
+        <v>0.9172263933090075</v>
       </c>
     </row>
     <row r="15">
@@ -2888,10 +2888,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.462111715499002e-08</v>
+        <v>-4.589759266678548e-08</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8607670995864715</v>
+        <v>0.5952506628203694</v>
       </c>
     </row>
     <row r="16">
@@ -2901,10 +2901,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02053256141881348</v>
+        <v>0.03080963463051139</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7874932469324736</v>
+        <v>0.6927130084209964</v>
       </c>
     </row>
     <row r="17">
@@ -2914,10 +2914,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02247557091778218</v>
+        <v>0.07209602506503655</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7966800888528466</v>
+        <v>0.4295777887693181</v>
       </c>
     </row>
     <row r="18">
@@ -2927,10 +2927,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.473333973114402</v>
+        <v>-1.758989668126747</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06391881031249753</v>
+        <v>0.0290301108308319</v>
       </c>
     </row>
     <row r="19">
@@ -2940,10 +2940,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01031830892086382</v>
+        <v>0.001972065634002244</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6092782026155655</v>
+        <v>0.9243974674667811</v>
       </c>
     </row>
     <row r="20">
@@ -2953,10 +2953,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.001126118387181481</v>
+        <v>0.003395712440366619</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8965641684069519</v>
+        <v>0.7065615197470853</v>
       </c>
     </row>
     <row r="21">
@@ -2966,10 +2966,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6329317174447269</v>
+        <v>-0.2157681742668646</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7095003353759628</v>
+        <v>0.9018843843870005</v>
       </c>
     </row>
     <row r="22">
@@ -2979,10 +2979,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.05753943651371678</v>
+        <v>-0.05811710275923485</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9615253301628315</v>
+        <v>0.9618954802922406</v>
       </c>
     </row>
     <row r="23">
@@ -2992,10 +2992,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0001542331623854965</v>
+        <v>-6.322332086504908e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7344172846002726</v>
+        <v>0.8944790545451174</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Leipzig.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Leipzig.xlsx
@@ -13,8 +13,9 @@
     <sheet name="summ0" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="summ10" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="summ4" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ8" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ19" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ19" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,283 +466,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-10.37425484184774</v>
+        <v>-2.080258584438897</v>
       </c>
       <c r="C2" t="n">
-        <v>0.938810930573345</v>
+        <v>0.1335053757757721</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.600228717843354</v>
+        <v>0.4446848777826361</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9433649639171425</v>
+        <v>1.304549799973278e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.298019639164263</v>
+        <v>0.0005803974198540069</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9451451194140708</v>
+        <v>2.920177970284251e-13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.360972218911977</v>
+        <v>0.006828552856169887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9506658123235717</v>
+        <v>0.2822882946748571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.879750666548103</v>
+        <v>-0.2599564288569953</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9476090119245469</v>
+        <v>0.1100096766633364</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.709052288929893</v>
+        <v>0.7903911516751566</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9486147779150244</v>
+        <v>0.002829331396441883</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1778566895081515</v>
+        <v>0.3165559213262141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3601618305553744</v>
+        <v>0.3668350363484385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0004627628641612906</v>
+        <v>-3.076209832335709e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.596415016986324e-08</v>
+        <v>0.6458630076794798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003816556043373746</v>
+        <v>2.433762841043726e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5696599923831795</v>
+        <v>0.7636053553313611</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2263252090346614</v>
+        <v>-0.006461461501256031</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1808001547140575</v>
+        <v>0.9338774004182551</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9288904562045258</v>
+        <v>0.05713745835021435</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005646868004054119</v>
+        <v>0.5146679023568015</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4096705520802395</v>
+        <v>-1.475274010273095</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2611277592370513</v>
+        <v>0.06422656078867076</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.057633718848586e-06</v>
+        <v>0.00113368239515686</v>
       </c>
       <c r="C14" t="n">
-        <v>0.948082411948596</v>
+        <v>0.9542166339054647</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.847956731907098e-09</v>
+        <v>0.003952702290460647</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9183501379646318</v>
+        <v>0.6474682926870092</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.001334390068568356</v>
+        <v>0.4998958073646237</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9864753722670591</v>
+        <v>0.7710604362553068</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03219246923549562</v>
+        <v>-0.6675024770752239</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7164993047095999</v>
+        <v>0.5626622404349402</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.429502839823645</v>
+        <v>-0.0002880576127175104</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07626580914319366</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.0006866086106331025</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9732502857180907</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.005997857121079008</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.502750548497588</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.2663894600155235</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8784984076088829</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.8808196826284549</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.4513220286136149</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0002480193792124042</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5959731083080314</v>
+        <v>0.5151808547135228</v>
       </c>
     </row>
   </sheetData>
@@ -755,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,283 +723,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-9.97706152304278</v>
+        <v>-2.537542034447988</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9173683885227617</v>
+        <v>0.06133795878481046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.753530389107693</v>
+        <v>0.4683292789995351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9274638567219481</v>
+        <v>1.809320324315256e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.23761985010333</v>
+        <v>0.0006486548147728853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9317285838250138</v>
+        <v>5.448281813942343e-16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.45929879602902</v>
+        <v>0.0007756394595495997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9381653012018818</v>
+        <v>0.9017844397320233</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.898670087784878</v>
+        <v>-0.2966013053414518</v>
       </c>
       <c r="C6" t="n">
-        <v>0.934531031675003</v>
+        <v>0.06685474556979945</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.729964374952699</v>
+        <v>0.8660042811340027</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9359264030794664</v>
+        <v>0.001114622583918672</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2418705865688555</v>
+        <v>0.6948201737987277</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2045355001364505</v>
+        <v>0.04458920847391946</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005132549192494434</v>
+        <v>3.708163923122525e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>5.271478929882367e-10</v>
+        <v>0.5795261719363716</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.00420640735863662</v>
+        <v>-4.715173743635062e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5281067201044585</v>
+        <v>0.546819921489345</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.279695976122171</v>
+        <v>0.04779622812177665</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09768111843710911</v>
+        <v>0.5324901415337713</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.012278478707827</v>
+        <v>0.0716153461902729</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001778180604380423</v>
+        <v>0.4118122842453749</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7829278843500579</v>
+        <v>-1.382297209013024</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02936277062411023</v>
+        <v>0.07930866439605544</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.366941726175109e-05</v>
+        <v>-0.008251582392543318</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2828710034416311</v>
+        <v>0.6711349323331356</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-8.156053595512742e-08</v>
+        <v>0.00547823373163617</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3294228211671207</v>
+        <v>0.510405959913294</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05603845793020042</v>
+        <v>-0.7859625797003619</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4709701944689595</v>
+        <v>0.6467792871157705</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03369666807343504</v>
+        <v>0.681958072534627</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7039521944891304</v>
+        <v>0.5627713493296174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.326188084413908</v>
+        <v>2.482049648648214e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.09674172513165394</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.008394060480968753</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6770276215377096</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.008973357504126683</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3005943603152652</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-1.61077282920817</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.3575168303909096</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.7371488537804985</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5404739835736221</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>9.298866084217822e-05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8383819918767909</v>
+        <v>0.9541311307129757</v>
       </c>
     </row>
   </sheetData>
@@ -1077,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,283 +980,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-10.45835015380973</v>
+        <v>-2.050382920713298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9418769282440131</v>
+        <v>0.1354786056436074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.802164692264407</v>
+        <v>0.3891005876367735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9455151330900685</v>
+        <v>5.96533479362408e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9.548960191363008</v>
+        <v>0.000651847536345836</v>
       </c>
       <c r="C4" t="n">
-        <v>0.94692058876087</v>
+        <v>3.691877311565093e-16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.579357927855147</v>
+        <v>0.004980021793078474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9523034116117599</v>
+        <v>0.4318655840304378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.022589333202234</v>
+        <v>-0.2664755421053313</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9498424474246585</v>
+        <v>0.09710042940496942</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.985522318938928</v>
+        <v>0.7067025134323326</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9500482797485882</v>
+        <v>0.006329191637812138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.122456920306578</v>
+        <v>0.3765387938679615</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4956526677993884</v>
+        <v>0.2709911735982894</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000532461024523524</v>
+        <v>-1.653723239152345e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>7.789892902284441e-11</v>
+        <v>0.7991689631310727</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002238516865273494</v>
+        <v>1.702924757982116e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7373656399909635</v>
+        <v>0.8276848016858649</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2351258575093456</v>
+        <v>0.05925936595575944</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1571409916614108</v>
+        <v>0.43334684514496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7609035836511721</v>
+        <v>0.04700589494494312</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003751697831427497</v>
+        <v>0.5958381949829052</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3739349178975936</v>
+        <v>-1.492455196233619</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2910846479802132</v>
+        <v>0.05151808687874248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.60507402387619e-05</v>
+        <v>-0.001851763532305843</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8303806595267307</v>
+        <v>0.9248607875348392</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.554647214742526e-09</v>
+        <v>0.0004858745545530692</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9467362371696534</v>
+        <v>0.9539769092687126</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.06117865567486909</v>
+        <v>1.281740713784493</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4245760135545638</v>
+        <v>0.4448982595334097</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02201011670114062</v>
+        <v>0.1416717731312392</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8059926291964418</v>
+        <v>0.9023099007614476</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.499938544665291</v>
+        <v>-0.0003093649755253052</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05276587014570504</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.004260921622422898</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8334795371933835</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.002810221249631772</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7458497442082574</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.4454396977483715</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.7919293974569632</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.02544539322065064</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9826200028706717</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.000222710730649497</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.6292531918777101</v>
+        <v>0.4804947822825006</v>
       </c>
     </row>
   </sheetData>
@@ -1399,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,283 +1237,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-11.92162396140384</v>
+        <v>-3.1673517912452</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9512774098568108</v>
+        <v>0.02324388800546556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.49912222585014</v>
+        <v>0.4658103793534331</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9570838343581598</v>
+        <v>4.178290172117084e-07</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10.54235463553238</v>
+        <v>0.0006820824763693537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9569073557095474</v>
+        <v>4.630572484700855e-16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.895443842926007</v>
+        <v>0.001824230675024621</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9636340919997403</v>
+        <v>0.7731555991109406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.496136917660252</v>
+        <v>-0.2280377016923194</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9611802421927745</v>
+        <v>0.159552502651795</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.67767627265251</v>
+        <v>0.682874758060831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9604387408151027</v>
+        <v>0.01038202087546839</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.00953558780757007</v>
+        <v>0.4746213080078127</v>
       </c>
       <c r="C8" t="n">
-        <v>0.958373088293161</v>
+        <v>0.1713302521881321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005413264089714956</v>
+        <v>-3.094942863431754e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.301810319353211e-10</v>
+        <v>0.6432275688566494</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.002420210204131318</v>
+        <v>8.048736327391869e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7199200721915386</v>
+        <v>0.9187727079879302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2064539261953917</v>
+        <v>0.03215339070089705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2227119704812787</v>
+        <v>0.6719772844857266</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7578685355943753</v>
+        <v>0.08828744488360755</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005209455065543513</v>
+        <v>0.3177032720452631</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5387007260712789</v>
+        <v>-0.8760543066537908</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1359137802697243</v>
+        <v>0.2796651457848509</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.012572200357759e-06</v>
+        <v>0.006936464368339827</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9276885642789491</v>
+        <v>0.7247553119672439</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.302306324954131e-09</v>
+        <v>0.006422530074508781</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9595045669356351</v>
+        <v>0.4495784583414577</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03630047529588565</v>
+        <v>1.074042819580016</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6403279187244775</v>
+        <v>0.5301415036722014</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0613316926862419</v>
+        <v>0.6808922987776241</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4960967285575311</v>
+        <v>0.5639334015925578</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.8156138478150567</v>
+        <v>-0.0003426835246292915</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3218737864840517</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.007406505384120073</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.718487820798295</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.01032107698034227</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.2466497813345038</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.3016177978636716</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8623163678000643</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.3449953243093986</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7754320737229357</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0003199182216320626</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4923284003791446</v>
+        <v>0.434492872501158</v>
       </c>
     </row>
   </sheetData>
@@ -1721,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1753,283 +1494,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.90665898050057</v>
+        <v>-1.694607221125983</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9968362726381133</v>
+        <v>0.2174343593301598</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.53286278165566</v>
+        <v>0.4090134146685261</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969062202417679</v>
+        <v>3.158519625053934e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.40682962258885</v>
+        <v>0.0005937698346997379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969298046059628</v>
+        <v>3.840206859779949e-14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.24534953202656</v>
+        <v>0.003252738444120557</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971471503723401</v>
+        <v>0.599989672767608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.79669975763256</v>
+        <v>-0.2294703899916018</v>
       </c>
       <c r="C6" t="n">
-        <v>0.997043977124817</v>
+        <v>0.1533915928833142</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.53899015065523</v>
+        <v>0.8043867493272283</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9970922018901086</v>
+        <v>0.001725488424997371</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1076340054401884</v>
+        <v>0.5692031241697751</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5519227852421245</v>
+        <v>0.08988411954702775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.000472539235281761</v>
+        <v>-4.618647690332269e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>4.14153772830904e-09</v>
+        <v>0.4939064279406243</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0002488506991039382</v>
+        <v>5.507788604409439e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9696524163465632</v>
+        <v>0.9434423216486232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2207475867206822</v>
+        <v>0.02626030539932285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1852717255623674</v>
+        <v>0.7287313613102457</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8718353488055837</v>
+        <v>0.05573552946626413</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0008655338199994552</v>
+        <v>0.5182747909697267</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6191996303709201</v>
+        <v>-1.494811992837621</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07518000081117461</v>
+        <v>0.05654226952625899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.712553424651639e-05</v>
+        <v>-0.01093477496017885</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8273110123606927</v>
+        <v>0.5716746169543157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.154607006189995e-09</v>
+        <v>0.0003781040324725271</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9503247406886213</v>
+        <v>0.9644532489283579</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03197959506235279</v>
+        <v>1.794483121093767</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6777768521031065</v>
+        <v>0.3001852539583503</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02355704287228477</v>
+        <v>0.2751828311177002</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7869385923152713</v>
+        <v>0.8141673133980015</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.461915884714295</v>
+        <v>-0.0001854658882566386</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06568974691109093</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.009954217319391922</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6189299331443009</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.003733763427474844</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6708793279126346</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.8977375712983161</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.6095800189488163</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.03566744630838403</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9760791792967076</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0001754501010985222</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.6947472087446418</v>
+        <v>0.6621508659139554</v>
       </c>
     </row>
   </sheetData>
@@ -2043,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2075,283 +1751,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.08334520174077</v>
+        <v>-1.87759338879961</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9968042165011609</v>
+        <v>0.1734244277666847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.48305029144163</v>
+        <v>0.4054522627983944</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969165129968601</v>
+        <v>3.211911892935782e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.21569631616939</v>
+        <v>0.0006459520175106253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969665267169877</v>
+        <v>1.276124425129288e-15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.20045609393516</v>
+        <v>0.00281517813656376</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971564470544894</v>
+        <v>0.6535770880180491</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.74625322099562</v>
+        <v>-0.2768362070400188</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970543451112144</v>
+        <v>0.0841939019424187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.70136721853631</v>
+        <v>0.7941428511221169</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9970627419108093</v>
+        <v>0.002356402346862865</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1342959838106768</v>
+        <v>0.5581497081383368</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4669486987622213</v>
+        <v>0.1045241943374726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005317609004672322</v>
+        <v>-2.487704312773856e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.148185902944049e-10</v>
+        <v>0.711357918519153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0003712831199891563</v>
+        <v>-8.561515066088682e-09</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9552615770575621</v>
+        <v>0.9127821319961643</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2712164061094858</v>
+        <v>0.02541390244597036</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1030089278982676</v>
+        <v>0.7396587870971914</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8767999339358409</v>
+        <v>0.05105571673028261</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00101003723149902</v>
+        <v>0.5568363714823971</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6203125640815467</v>
+        <v>-1.571242664885359</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08252660138785806</v>
+        <v>0.046260739449042</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.030030822892193e-06</v>
+        <v>-0.006562373783768947</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9687003417679828</v>
+        <v>0.7384232752267903</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.357182372048868e-08</v>
+        <v>0.001488096157379506</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6851831619153772</v>
+        <v>0.8603368588794604</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03146569259935119</v>
+        <v>0.8878738590036114</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6831744337227481</v>
+        <v>0.6055506378360729</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01838317064526468</v>
+        <v>0.8827969539324761</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8348760527987111</v>
+        <v>0.4519029156143501</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.591746737462635</v>
+        <v>-0.0001875490472065268</v>
       </c>
       <c r="C18" t="n">
-        <v>0.04563116186864365</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.006764377619646487</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.7391276923813836</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.004590266980242498</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.6003831284095585</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.141448421614882</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9351338075137064</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.6630311255415315</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.5767875144163566</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0001221433366115558</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7884310417045693</v>
+        <v>0.664781971545357</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2397,283 +2008,218 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-16.58754203830856</v>
+        <v>-1.980870879352053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9968935875194019</v>
+        <v>0.152793868878595</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.38054392672779</v>
+        <v>0.3761819872559207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969323524675807</v>
+        <v>2.739831833618304e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.06958898346105</v>
+        <v>0.0006555317979650533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969905859277319</v>
+        <v>7.448569681473436e-16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.23104159710088</v>
+        <v>0.004959384246873524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971476232466804</v>
+        <v>0.4279962727161152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.70353123756519</v>
+        <v>-0.2207209742742804</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970591386573813</v>
+        <v>0.1730172475967121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.28770539745326</v>
+        <v>0.837700885621686</v>
       </c>
       <c r="C7" t="n">
-        <v>0.997137011642897</v>
+        <v>0.001326460492702641</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2036502549329919</v>
+        <v>0.5319313565154102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2914796249982243</v>
+        <v>0.1167418433425593</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005373772298367794</v>
+        <v>-2.17917662591433e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.731629712172773e-10</v>
+        <v>0.7508290379719109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.005270610453765605</v>
+        <v>1.488688552563814e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4350180428639819</v>
+        <v>0.8506952370975415</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2332813016400017</v>
+        <v>0.03567937100668127</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1676254046212103</v>
+        <v>0.6485225403528455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.047976858201339</v>
+        <v>-0.004806840881321253</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001168329542731331</v>
+        <v>0.9568978265545096</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8459469400248563</v>
+        <v>-1.678924976570757</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01992381113017895</v>
+        <v>0.03350062101205278</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.207742323369087e-05</v>
+        <v>-0.001568667644445554</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5840208805778604</v>
+        <v>0.9372686797168068</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>9.82139768976252e-09</v>
+        <v>0.00260485874750894</v>
       </c>
       <c r="C15" t="n">
-        <v>0.90824659791345</v>
+        <v>0.760073524989492</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05751669549450392</v>
+        <v>1.092725304666673</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4636307195261142</v>
+        <v>0.5289701271602056</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003949900818683735</v>
+        <v>1.268993105251971</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9649634807585047</v>
+        <v>0.2934195646786807</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>bike_lane_share</t>
+          <t>transit_accessibility</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-1.452236774461807</v>
+        <v>-0.0004256083275535145</v>
       </c>
       <c r="C18" t="n">
-        <v>0.06692921646590498</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-0.009370011364644146</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6502683982856141</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.001588823097453103</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8586018473840845</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.1651865541400728</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9232787469217226</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.3596830417868347</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7661621888363735</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-0.0002502161960366703</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5916130859958572</v>
+        <v>0.3355153279346235</v>
       </c>
     </row>
   </sheetData>
@@ -2687,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2719,283 +2265,475 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-17.6471430690852</v>
+        <v>-1.428714769863493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9967026151394964</v>
+        <v>0.3143050914440605</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.47738994307831</v>
+        <v>0.429089735395869</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9969211832763951</v>
+        <v>2.043335306060966e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HHType_simp[T.MultiAdult_Kids]</t>
+          <t>IncomeDetailed_Numeric</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.07316994715902</v>
+        <v>0.0006578240924466686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9969967118338391</v>
+        <v>2.231596758260162e-15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Female]</t>
+          <t>maxAgeHH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.28370375703539</v>
+        <v>-0.001443794651819194</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9971442237431515</v>
+        <v>0.8216926320466232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Male]</t>
+          <t>UniversityEducation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.73726891016789</v>
+        <v>-0.256919951073142</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9970594749908054</v>
+        <v>0.1159282027446258</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHType_simp[T.Single_Parent]</t>
+          <t>InEmployment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.42905798851657</v>
+        <v>0.9547449711773277</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9971170642714526</v>
+        <v>0.0003583635688542165</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>AllRetired</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2213699151413253</v>
+        <v>0.7935675876160364</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2372362336348703</v>
+        <v>0.02358345386367621</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IncomeDetailed_Numeric</t>
+          <t>UrbPopDensity</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0005597168098233074</v>
+        <v>1.603276063817265e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>2.987713753829211e-11</v>
+        <v>0.8086945861701015</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>maxAgeHH</t>
+          <t>UrbBuildDensity</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.001237183291287754</v>
+        <v>2.483781577882338e-08</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8536654655212961</v>
+        <v>0.7587761599133624</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UniversityEducation</t>
+          <t>DistSubcenter</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.2758218060602471</v>
+        <v>0.04983374117421651</v>
       </c>
       <c r="C11" t="n">
-        <v>0.105012100168931</v>
+        <v>0.5218478386039089</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>InEmployment</t>
+          <t>DistCenter</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.8939181894223804</v>
+        <v>0.03481672424818637</v>
       </c>
       <c r="C12" t="n">
-        <v>0.00112809983255727</v>
+        <v>0.6958908122549432</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AllRetired</t>
+          <t>bike_lane_share</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6112818046084856</v>
+        <v>-1.56912417726786</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09248860030395453</v>
+        <v>0.04540198064752487</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>UrbPopDensity</t>
+          <t>IntersecDensity</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.082259657328731e-06</v>
+        <v>-0.009930390348825632</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9172263933090075</v>
+        <v>0.6205126601444023</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>UrbBuildDensity</t>
+          <t>street_length</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.589759266678548e-08</v>
+        <v>-0.001286929428039684</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5952506628203694</v>
+        <v>0.8817620402298718</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DistSubcenter</t>
+          <t>LU_UrbFab</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03080963463051139</v>
+        <v>0.5329146417242425</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6927130084209964</v>
+        <v>0.7526236611914888</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>DistCenter</t>
+          <t>LU_Comm</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.07209602506503655</v>
+        <v>-0.1915941092094135</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4295777887693181</v>
+        <v>0.872435705318395</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>transit_accessibility</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.0002755637546715878</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5370969038525578</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>param</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coefficient</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Intercept</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.317756404102619</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.09709805191759813</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HHSize</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4346915814749444</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.05302406942994e-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>IncomeDetailed_Numeric</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.0006891571695624257</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5.483106819375217e-17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>maxAgeHH</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.004430205785280313</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.4864286046145921</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UniversityEducation</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2685997472439577</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1012334302728324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>InEmployment</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7403706053849973</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.005722450971437742</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AllRetired</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5193073530694571</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1373791834442245</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UrbPopDensity</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-2.209199978136671e-05</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7432214921769974</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UrbBuildDensity</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-3.386552605959604e-08</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6765164748926658</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>DistSubcenter</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02614474626549064</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7339222560111494</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DistCenter</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1004735333783041</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2657279077318101</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>bike_lane_share</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>-1.926715348888997</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01534757796956075</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>IntersecDensity</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0004310734283220842</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9828110832767464</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>street_length</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0005194990149922592</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.9524611865855842</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LU_UrbFab</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.6364120565730463</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.713286258451156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>LU_Comm</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1368281835876894</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9090269845855258</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>transit_accessibility</t>
+        </is>
+      </c>
       <c r="B18" t="n">
-        <v>-1.758989668126747</v>
+        <v>-6.86240911387529e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0290301108308319</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>IntersecDensity</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.001972065634002244</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9243974674667811</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>street_length</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.003395712440366619</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.7065615197470853</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>LU_UrbFab</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>-0.2157681742668646</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.9018843843870005</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>LU_Comm</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.05811710275923485</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.9618954802922406</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>transit_accessibility</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>-6.322332086504908e-05</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8944790545451174</v>
+        <v>0.8792584667516459</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/carown_LR_new/Leipzig.xlsx
+++ b/outputs/ML_Results/carown_LR_new/Leipzig.xlsx
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.080258584438897</v>
+        <v>-1.952431722477858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1335053757757721</v>
+        <v>0.1627190067454193</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4446848777826361</v>
+        <v>0.4435908615281195</v>
       </c>
       <c r="C3" t="n">
-        <v>1.304549799973278e-06</v>
+        <v>1.385378578057979e-06</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005803974198540069</v>
+        <v>0.0005830563059390619</v>
       </c>
       <c r="C4" t="n">
-        <v>2.920177970284251e-13</v>
+        <v>2.150553086549339e-13</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006828552856169887</v>
+        <v>0.007040648083713236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2822882946748571</v>
+        <v>0.2673766552683504</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2599564288569953</v>
+        <v>-0.2555784500407998</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1100096766633364</v>
+        <v>0.1158059230206529</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7903911516751566</v>
+        <v>0.7903021613309585</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002829331396441883</v>
+        <v>0.002803605471894762</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3165559213262141</v>
+        <v>0.3090995577776551</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3668350363484385</v>
+        <v>0.3775341425309841</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.076209832335709e-05</v>
+        <v>-0.002605765082419341</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6458630076794798</v>
+        <v>0.7028250032358252</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.433762841043726e-08</v>
+        <v>-0.02173023810036783</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7636053553313611</v>
+        <v>0.833638918654121</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.006461461501256031</v>
+        <v>-0.002386019403614353</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9338774004182551</v>
+        <v>0.9752587332156677</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05713745835021435</v>
+        <v>0.09119655230574371</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5146679023568015</v>
+        <v>0.370254390396851</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.475274010273095</v>
+        <v>-0.01419689954288698</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06422656078867076</v>
+        <v>0.09691902166734634</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00113368239515686</v>
+        <v>-0.00722068566970353</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9542166339054647</v>
+        <v>0.7422766831714898</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.003952702290460647</v>
+        <v>0.002162115259417251</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6474682926870092</v>
+        <v>0.8036978566785513</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4998958073646237</v>
+        <v>0.003269622361061539</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7710604362553068</v>
+        <v>0.8513316419643395</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.6675024770752239</v>
+        <v>-0.005745799207414994</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5626622404349402</v>
+        <v>0.631866085049662</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002880576127175104</v>
+        <v>0.000205630443724342</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5151808547135228</v>
+        <v>0.9956449320947001</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.537542034447988</v>
+        <v>-2.470618827276908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06133795878481046</v>
+        <v>0.0712886448223649</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4683292789995351</v>
+        <v>0.4687934390931235</v>
       </c>
       <c r="C3" t="n">
-        <v>1.809320324315256e-07</v>
+        <v>1.779952871051947e-07</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006486548147728853</v>
+        <v>0.0006491402723258042</v>
       </c>
       <c r="C4" t="n">
-        <v>5.448281813942343e-16</v>
+        <v>5.128832415213109e-16</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0007756394595495997</v>
+        <v>0.0008453761663772203</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9017844397320233</v>
+        <v>0.8929425467835271</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2966013053414518</v>
+        <v>-0.296573056686511</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06685474556979945</v>
+        <v>0.06680846919409088</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8660042811340027</v>
+        <v>0.8673377589706764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001114622583918672</v>
+        <v>0.001089003438994457</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.6948201737987277</v>
+        <v>0.6943575709811283</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04458920847391946</v>
+        <v>0.04443443010089584</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.708163923122525e-05</v>
+        <v>0.004160048450442763</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5795261719363716</v>
+        <v>0.5429750558184387</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-4.715173743635062e-08</v>
+        <v>-0.07083545863059436</v>
       </c>
       <c r="C10" t="n">
-        <v>0.546819921489345</v>
+        <v>0.4792823641499395</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04779622812177665</v>
+        <v>0.0446535411326313</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5324901415337713</v>
+        <v>0.5622258327228283</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0716153461902729</v>
+        <v>0.09055568181283988</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4118122842453749</v>
+        <v>0.3697980837106204</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.382297209013024</v>
+        <v>-0.01484895687294722</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07930866439605544</v>
+        <v>0.08042853412616005</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.008251582392543318</v>
+        <v>-0.01217434873959838</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6711349323331356</v>
+        <v>0.5698822753134695</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00547823373163617</v>
+        <v>0.004811796657413292</v>
       </c>
       <c r="C15" t="n">
-        <v>0.510405959913294</v>
+        <v>0.5662076425462144</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.7859625797003619</v>
+        <v>-0.009055183037362399</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6467792871157705</v>
+        <v>0.6040491250554816</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.681958072534627</v>
+        <v>0.007694158559911013</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5627713493296174</v>
+        <v>0.5267223563929617</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.482049648648214e-05</v>
+        <v>0.01104863847826097</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9541311307129757</v>
+        <v>0.7626239813287234</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.050382920713298</v>
+        <v>-1.923769942439165</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1354786056436074</v>
+        <v>0.1641476528425401</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3891005876367735</v>
+        <v>0.3884313024122756</v>
       </c>
       <c r="C3" t="n">
-        <v>5.96533479362408e-06</v>
+        <v>6.213501654798319e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.000651847536345836</v>
+        <v>0.0006545843871301318</v>
       </c>
       <c r="C4" t="n">
-        <v>3.691877311565093e-16</v>
+        <v>2.508182387326815e-16</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004980021793078474</v>
+        <v>0.005253297641720784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4318655840304378</v>
+        <v>0.4067957042906335</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2664755421053313</v>
+        <v>-0.2631382010101966</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09710042940496942</v>
+        <v>0.1012161840087987</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7067025134323326</v>
+        <v>0.7071692614420272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006329191637812138</v>
+        <v>0.006212310638155883</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3765387938679615</v>
+        <v>0.3663785919720675</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2709911735982894</v>
+        <v>0.2829844768990885</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.653723239152345e-05</v>
+        <v>-0.001115371699200353</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7991689631310727</v>
+        <v>0.8661560652480074</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.702924757982116e-08</v>
+        <v>-0.03030611567232119</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8276848016858649</v>
+        <v>0.7641124040247662</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05925936595575944</v>
+        <v>0.06177172851431233</v>
       </c>
       <c r="C11" t="n">
-        <v>0.43334684514496</v>
+        <v>0.4119664072469031</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04700589494494312</v>
+        <v>0.08441204157598606</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5958381949829052</v>
+        <v>0.4082568609905463</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.492455196233619</v>
+        <v>-0.01431411826327155</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05151808687874248</v>
+        <v>0.08411297026972508</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.001851763532305843</v>
+        <v>-0.01066004148818973</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9248607875348392</v>
+        <v>0.6216265890556807</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0004858745545530692</v>
+        <v>-0.001369304424428947</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9539769092687126</v>
+        <v>0.8713178713408295</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.281740713784493</v>
+        <v>0.01086015655224366</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4448982595334097</v>
+        <v>0.5233819292369484</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1416717731312392</v>
+        <v>0.002197277820746317</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9023099007614476</v>
+        <v>0.8543470768062735</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0003093649755253052</v>
+        <v>-0.0002020287925753612</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4804947822825006</v>
+        <v>0.9956631148048386</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3.1673517912452</v>
+        <v>-3.056702529071714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02324388800546556</v>
+        <v>0.02933561292986745</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4658103793534331</v>
+        <v>0.4642346369956087</v>
       </c>
       <c r="C3" t="n">
-        <v>4.178290172117084e-07</v>
+        <v>4.499629083920818e-07</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006820824763693537</v>
+        <v>0.000683452929678574</v>
       </c>
       <c r="C4" t="n">
-        <v>4.630572484700855e-16</v>
+        <v>3.898734726488231e-16</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001824230675024621</v>
+        <v>0.002016502294096481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7731555991109406</v>
+        <v>0.7499309299438492</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2280377016923194</v>
+        <v>-0.2228566072442297</v>
       </c>
       <c r="C6" t="n">
-        <v>0.159552502651795</v>
+        <v>0.1688765417225565</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.682874758060831</v>
+        <v>0.6904680698587039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01038202087546839</v>
+        <v>0.009568344125412537</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4746213080078127</v>
+        <v>0.4730237146008595</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1713302521881321</v>
+        <v>0.1725734569243248</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-3.094942863431754e-05</v>
+        <v>-0.002550327332219849</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6432275688566494</v>
+        <v>0.7081510781553013</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.048736327391869e-09</v>
+        <v>-0.03466913056526898</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9187727079879302</v>
+        <v>0.7287449192100068</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03215339070089705</v>
+        <v>0.03671040976177192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6719772844857266</v>
+        <v>0.6257332531169348</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.08828744488360755</v>
+        <v>0.1211934925078082</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3177032720452631</v>
+        <v>0.2309730157044662</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.8760543066537908</v>
+        <v>-0.007764263573580384</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2796651457848509</v>
+        <v>0.3698349116417424</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.006936464368339827</v>
+        <v>-0.001089074310648567</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7247553119672439</v>
+        <v>0.9596331700754156</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.006422530074508781</v>
+        <v>0.004726108050280252</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4495784583414577</v>
+        <v>0.5782922278005682</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.074042819580016</v>
+        <v>0.008779257749038937</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5301415036722014</v>
+        <v>0.613324575724614</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6808922987776241</v>
+        <v>0.007067862372131101</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5639334015925578</v>
+        <v>0.5599764055871363</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0003426835246292915</v>
+        <v>-0.00414659467798487</v>
       </c>
       <c r="C18" t="n">
-        <v>0.434492872501158</v>
+        <v>0.9098294220854998</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.694607221125983</v>
+        <v>-1.656747000308389</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2174343593301598</v>
+        <v>0.2317711022032456</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4090134146685261</v>
+        <v>0.4082746959392232</v>
       </c>
       <c r="C3" t="n">
-        <v>3.158519625053934e-06</v>
+        <v>3.272852834324262e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0005937698346997379</v>
+        <v>0.0005949416112891063</v>
       </c>
       <c r="C4" t="n">
-        <v>3.840206859779949e-14</v>
+        <v>3.226787977624934e-14</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003252738444120557</v>
+        <v>0.003356479442233614</v>
       </c>
       <c r="C5" t="n">
-        <v>0.599989672767608</v>
+        <v>0.5881394863029585</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2294703899916018</v>
+        <v>-0.226666863398045</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1533915928833142</v>
+        <v>0.1581545729463683</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8043867493272283</v>
+        <v>0.8061066603234098</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001725488424997371</v>
+        <v>0.001681234304618091</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5692031241697751</v>
+        <v>0.5662808427824803</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08988411954702775</v>
+        <v>0.09141074778299588</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.618647690332269e-05</v>
+        <v>-0.004499707584590439</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4939064279406243</v>
+        <v>0.5141329039754909</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.507788604409439e-09</v>
+        <v>-0.01083375508870288</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9434423216486232</v>
+        <v>0.9136148199719321</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02626030539932285</v>
+        <v>0.02968863148539161</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7287313613102457</v>
+        <v>0.693831379323393</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05573552946626413</v>
+        <v>0.0681073353787584</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5182747909697267</v>
+        <v>0.4954104264139902</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.494811992837621</v>
+        <v>-0.01416731575123871</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05654226952625899</v>
+        <v>0.09290934370659355</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.01093477496017885</v>
+        <v>-0.01413225194357624</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5716746169543157</v>
+        <v>0.5091141978020659</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003781040324725271</v>
+        <v>-0.0003332097824684807</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9644532489283579</v>
+        <v>0.968837172909491</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.794483121093767</v>
+        <v>0.01729425208654723</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3001852539583503</v>
+        <v>0.3271041230964082</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.2751828311177002</v>
+        <v>0.002736032031980998</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8141673133980015</v>
+        <v>0.8206686740120724</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0001854658882566386</v>
+        <v>-0.004964875330311038</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6621508659139554</v>
+        <v>0.8914202196376529</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.87759338879961</v>
+        <v>-1.779188699367523</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1734244277666847</v>
+        <v>0.200886201574328</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4054522627983944</v>
+        <v>0.4053019379376075</v>
       </c>
       <c r="C3" t="n">
-        <v>3.211911892935782e-06</v>
+        <v>3.262869316032028e-06</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006459520175106253</v>
+        <v>0.0006477809729269881</v>
       </c>
       <c r="C4" t="n">
-        <v>1.276124425129288e-15</v>
+        <v>1.003574080465595e-15</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00281517813656376</v>
+        <v>0.002938042294008716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6535770880180491</v>
+        <v>0.6394648417288433</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2768362070400188</v>
+        <v>-0.2752335001114471</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0841939019424187</v>
+        <v>0.08592722901686971</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7941428511221169</v>
+        <v>0.7947517476136507</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002356402346862865</v>
+        <v>0.002316102794356181</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5581497081383368</v>
+        <v>0.5538390245444347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1045241943374726</v>
+        <v>0.1067409017407826</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.487704312773856e-05</v>
+        <v>-0.001968957911923486</v>
       </c>
       <c r="C9" t="n">
-        <v>0.711357918519153</v>
+        <v>0.7735690056170806</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.561515066088682e-09</v>
+        <v>-0.04537296429234438</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9127821319961643</v>
+        <v>0.6478738904544468</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02541390244597036</v>
+        <v>0.02707398337295285</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7396587870971914</v>
+        <v>0.7218062392304464</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05105571673028261</v>
+        <v>0.0793540097635541</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5568363714823971</v>
+        <v>0.4284003043200372</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.571242664885359</v>
+        <v>-0.01561862411440251</v>
       </c>
       <c r="C13" t="n">
-        <v>0.046260739449042</v>
+        <v>0.06496151707660176</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.006562373783768947</v>
+        <v>-0.0132360167466945</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7384232752267903</v>
+        <v>0.5398381027405721</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001488096157379506</v>
+        <v>0.0001790798728813718</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8603368588794604</v>
+        <v>0.9832142284274814</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8878738590036114</v>
+        <v>0.007214655614513278</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6055506378360729</v>
+        <v>0.6790147732583689</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8827969539324761</v>
+        <v>0.009423365098959446</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4519029156143501</v>
+        <v>0.4360826235388934</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0001875490472065268</v>
+        <v>0.003124469537374162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.664781971545357</v>
+        <v>0.9316269815737263</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.980870879352053</v>
+        <v>-1.849732135198387</v>
       </c>
       <c r="C2" t="n">
-        <v>0.152793868878595</v>
+        <v>0.1849801447528585</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3761819872559207</v>
+        <v>0.3749681363358339</v>
       </c>
       <c r="C3" t="n">
-        <v>2.739831833618304e-05</v>
+        <v>2.908697540106398e-05</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006555317979650533</v>
+        <v>0.0006587381762381302</v>
       </c>
       <c r="C4" t="n">
-        <v>7.448569681473436e-16</v>
+        <v>4.967878656326509e-16</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004959384246873524</v>
+        <v>0.005314254961901481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4279962727161152</v>
+        <v>0.395399249609412</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2207209742742804</v>
+        <v>-0.2177076312538834</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1730172475967121</v>
+        <v>0.1788355662357664</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.837700885621686</v>
+        <v>0.836161437542901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001326460492702641</v>
+        <v>0.001323888883801575</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5319313565154102</v>
+        <v>0.5137496875764431</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1167418433425593</v>
+        <v>0.1287822864530891</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.17917662591433e-05</v>
+        <v>-0.001678277204249099</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7508290379719109</v>
+        <v>0.810162290950075</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.488688552563814e-08</v>
+        <v>-0.03499060265091842</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8506952370975415</v>
+        <v>0.7260743910616549</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.03567937100668127</v>
+        <v>0.04196910497133795</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6485225403528455</v>
+        <v>0.5874092681226792</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.004806840881321253</v>
+        <v>0.03377354695058941</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9568978265545096</v>
+        <v>0.7402519428146905</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.678924976570757</v>
+        <v>-0.01531725226675844</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03350062101205278</v>
+        <v>0.0696001133961088</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.001568667644445554</v>
+        <v>-0.01141903021978978</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9372686797168068</v>
+        <v>0.5977107524923451</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00260485874750894</v>
+        <v>0.0006079450369433126</v>
       </c>
       <c r="C15" t="n">
-        <v>0.760073524989492</v>
+        <v>0.9433694138339153</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.092725304666673</v>
+        <v>0.00894156669536814</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5289701271602056</v>
+        <v>0.6118202618314752</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.268993105251971</v>
+        <v>0.01276534322380655</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2934195646786807</v>
+        <v>0.3014351372310463</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0004256083275535145</v>
+        <v>-0.006052002672928152</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3355153279346235</v>
+        <v>0.8688265653375039</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.428714769863493</v>
+        <v>-1.368194119588813</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3143050914440605</v>
+        <v>0.3400926103412313</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.429089735395869</v>
+        <v>0.428880319929669</v>
       </c>
       <c r="C3" t="n">
-        <v>2.043335306060966e-06</v>
+        <v>2.067149020004831e-06</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006578240924466686</v>
+        <v>0.0006602194267053913</v>
       </c>
       <c r="C4" t="n">
-        <v>2.231596758260162e-15</v>
+        <v>1.727310085679157e-15</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.001443794651819194</v>
+        <v>-0.001377924511054146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8216926320466232</v>
+        <v>0.829631299908177</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.256919951073142</v>
+        <v>-0.2547240143148888</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1159282027446258</v>
+        <v>0.1191103891989215</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9547449711773277</v>
+        <v>0.9524098255702825</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003583635688542165</v>
+        <v>0.0003643768832047682</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7935675876160364</v>
+        <v>0.7867721766387346</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02358345386367621</v>
+        <v>0.02461587819701743</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.603276063817265e-05</v>
+        <v>0.001682750050966802</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8086945861701015</v>
+        <v>0.8028369410802381</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.483781577882338e-08</v>
+        <v>0.002157251137829879</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7587761599133624</v>
+        <v>0.9835704852454596</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04983374117421651</v>
+        <v>0.05530417557694463</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5218478386039089</v>
+        <v>0.4739339151150294</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03481672424818637</v>
+        <v>0.05174541755675304</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6958908122549432</v>
+        <v>0.6178604694529564</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.56912417726786</v>
+        <v>-0.01444903068652661</v>
       </c>
       <c r="C13" t="n">
-        <v>0.04540198064752487</v>
+        <v>0.08823746466935986</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.009930390348825632</v>
+        <v>-0.01452175695173206</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6205126601444023</v>
+        <v>0.5132535916577325</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.001286929428039684</v>
+        <v>-0.00233764951829696</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8817620402298718</v>
+        <v>0.7892304120735563</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5329146417242425</v>
+        <v>0.004691031425272855</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7526236611914888</v>
+        <v>0.7845554390491625</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1915941092094135</v>
+        <v>-0.001912505605437107</v>
       </c>
       <c r="C17" t="n">
-        <v>0.872435705318395</v>
+        <v>0.8778342806753289</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0002755637546715878</v>
+        <v>-0.007998757883947766</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5370969038525578</v>
+        <v>0.8339620580412174</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2.317756404102619</v>
+        <v>-2.052191204919097</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09709805191759813</v>
+        <v>0.1478513767960631</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4346915814749444</v>
+        <v>0.4350205273544584</v>
       </c>
       <c r="C3" t="n">
-        <v>1.05302406942994e-06</v>
+        <v>1.052692081242175e-06</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0006891571695624257</v>
+        <v>0.000690666976799369</v>
       </c>
       <c r="C4" t="n">
-        <v>5.483106819375217e-17</v>
+        <v>4.584977953364292e-17</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.004430205785280313</v>
+        <v>0.004732932093403082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4864286046145921</v>
+        <v>0.4575807775035519</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.2685997472439577</v>
+        <v>-0.267122997881924</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1012334302728324</v>
+        <v>0.1032449524527668</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7403706053849973</v>
+        <v>0.7501198209818741</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005722450971437742</v>
+        <v>0.005098710611438543</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5193073530694571</v>
+        <v>0.5166403455104284</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1373791834442245</v>
+        <v>0.1390215568227893</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-2.209199978136671e-05</v>
+        <v>-0.001044042832678174</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7432214921769974</v>
+        <v>0.8791221775213528</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.386552605959604e-08</v>
+        <v>-0.1181544875464213</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6765164748926658</v>
+        <v>0.2824988318882375</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02614474626549064</v>
+        <v>0.02031421915625759</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7339222560111494</v>
+        <v>0.7913174396351845</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1004735333783041</v>
+        <v>0.1666971359585133</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2657279077318101</v>
+        <v>0.1218091711503747</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.926715348888997</v>
+        <v>-0.02173030937784642</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01534757796956075</v>
+        <v>0.01249970723335521</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0004310734283220842</v>
+        <v>-0.01386336389640506</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9828110832767464</v>
+        <v>0.5436441209649221</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0005194990149922592</v>
+        <v>-0.002382839754843597</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9524611865855842</v>
+        <v>0.7876602576084097</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.6364120565730463</v>
+        <v>0.002860915022182633</v>
       </c>
       <c r="C16" t="n">
-        <v>0.713286258451156</v>
+        <v>0.8709994429284611</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1368281835876894</v>
+        <v>0.004687689985465651</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9090269845855258</v>
+        <v>0.7110616501661997</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-6.86240911387529e-05</v>
+        <v>0.02908135359710985</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8792584667516459</v>
+        <v>0.4721979774328294</v>
       </c>
     </row>
   </sheetData>
